--- a/set50_table.xlsx
+++ b/set50_table.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DTAC.BK" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBANK.BK" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,9 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -425,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +476,696 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B2" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>143</v>
+      </c>
+      <c r="E2" t="n">
+        <v>146</v>
+      </c>
+      <c r="F2" t="n">
+        <v>146</v>
+      </c>
+      <c r="G2" t="n">
+        <v>17752800</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B3" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="C3" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="E3" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11550400</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>44867</v>
+      </c>
+      <c r="B4" t="n">
+        <v>147</v>
+      </c>
+      <c r="C4" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="E4" t="n">
+        <v>147</v>
+      </c>
+      <c r="F4" t="n">
+        <v>147</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9627600</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>44868</v>
+      </c>
+      <c r="B5" t="n">
+        <v>147</v>
+      </c>
+      <c r="C5" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="E5" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>14693000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>44869</v>
+      </c>
+      <c r="B6" t="n">
+        <v>149</v>
+      </c>
+      <c r="C6" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>148</v>
+      </c>
+      <c r="E6" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="G6" t="n">
+        <v>12164700</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="B7" t="n">
+        <v>149</v>
+      </c>
+      <c r="C7" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>148</v>
+      </c>
+      <c r="E7" t="n">
+        <v>148</v>
+      </c>
+      <c r="F7" t="n">
+        <v>148</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5119300</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>44873</v>
+      </c>
+      <c r="B8" t="n">
+        <v>149</v>
+      </c>
+      <c r="C8" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>148</v>
+      </c>
+      <c r="E8" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="F8" t="n">
+        <v>148.5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5572100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44874</v>
+      </c>
+      <c r="B9" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>150</v>
+      </c>
+      <c r="D9" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="E9" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="F9" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9537100</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44875</v>
+      </c>
+      <c r="B10" t="n">
+        <v>146.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>149</v>
+      </c>
+      <c r="D10" t="n">
+        <v>146</v>
+      </c>
+      <c r="E10" t="n">
+        <v>148</v>
+      </c>
+      <c r="F10" t="n">
+        <v>148</v>
+      </c>
+      <c r="G10" t="n">
+        <v>10168200</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44876</v>
+      </c>
+      <c r="B11" t="n">
+        <v>149</v>
+      </c>
+      <c r="C11" t="n">
+        <v>149.5</v>
+      </c>
+      <c r="D11" t="n">
+        <v>147.5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>148</v>
+      </c>
+      <c r="F11" t="n">
+        <v>148</v>
+      </c>
+      <c r="G11" t="n">
+        <v>12981500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B12" t="n">
+        <v>146</v>
+      </c>
+      <c r="C12" t="n">
+        <v>147</v>
+      </c>
+      <c r="D12" t="n">
+        <v>144</v>
+      </c>
+      <c r="E12" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="F12" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>17568200</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44880</v>
+      </c>
+      <c r="B13" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>146</v>
+      </c>
+      <c r="D13" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="F13" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>13430800</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44881</v>
+      </c>
+      <c r="B14" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>145</v>
+      </c>
+      <c r="D14" t="n">
+        <v>144</v>
+      </c>
+      <c r="E14" t="n">
+        <v>145</v>
+      </c>
+      <c r="F14" t="n">
+        <v>145</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9768600</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44882</v>
+      </c>
+      <c r="B15" t="n">
+        <v>145</v>
+      </c>
+      <c r="C15" t="n">
+        <v>145</v>
+      </c>
+      <c r="D15" t="n">
+        <v>143</v>
+      </c>
+      <c r="E15" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>10765400</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44883</v>
+      </c>
+      <c r="B16" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>142</v>
+      </c>
+      <c r="E16" t="n">
+        <v>143</v>
+      </c>
+      <c r="F16" t="n">
+        <v>143</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9257400</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B17" t="n">
+        <v>143</v>
+      </c>
+      <c r="C17" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="D17" t="n">
+        <v>142</v>
+      </c>
+      <c r="E17" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="F17" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10003000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44887</v>
+      </c>
+      <c r="B18" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="C18" t="n">
+        <v>144</v>
+      </c>
+      <c r="D18" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="E18" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="G18" t="n">
+        <v>5287300</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44888</v>
+      </c>
+      <c r="B19" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="C19" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="E19" t="n">
+        <v>143</v>
+      </c>
+      <c r="F19" t="n">
+        <v>143</v>
+      </c>
+      <c r="G19" t="n">
+        <v>6272600</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44889</v>
+      </c>
+      <c r="B20" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>144</v>
+      </c>
+      <c r="D20" t="n">
+        <v>143</v>
+      </c>
+      <c r="E20" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="F20" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2776000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44890</v>
+      </c>
+      <c r="B21" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="C21" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="D21" t="n">
+        <v>143</v>
+      </c>
+      <c r="E21" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="F21" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>5736300</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="B22" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="C22" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="E22" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="F22" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>7093400</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>44894</v>
+      </c>
+      <c r="B23" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="C23" t="n">
+        <v>146</v>
+      </c>
+      <c r="D23" t="n">
+        <v>143</v>
+      </c>
+      <c r="E23" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="F23" t="n">
+        <v>145.5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>11822300</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>44895</v>
+      </c>
+      <c r="B24" t="n">
+        <v>145</v>
+      </c>
+      <c r="C24" t="n">
+        <v>145</v>
+      </c>
+      <c r="D24" t="n">
+        <v>144</v>
+      </c>
+      <c r="E24" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="F24" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>15367800</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B25" t="n">
+        <v>144.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>145</v>
+      </c>
+      <c r="D25" t="n">
+        <v>144</v>
+      </c>
+      <c r="E25" t="n">
+        <v>144</v>
+      </c>
+      <c r="F25" t="n">
+        <v>144</v>
+      </c>
+      <c r="G25" t="n">
+        <v>10183900</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>44897</v>
+      </c>
+      <c r="B26" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>144</v>
+      </c>
+      <c r="D26" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="E26" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="G26" t="n">
+        <v>9242700</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>44901</v>
+      </c>
+      <c r="B27" t="n">
+        <v>141.5</v>
+      </c>
+      <c r="C27" t="n">
+        <v>142</v>
+      </c>
+      <c r="D27" t="n">
+        <v>141</v>
+      </c>
+      <c r="E27" t="n">
+        <v>142</v>
+      </c>
+      <c r="F27" t="n">
+        <v>142</v>
+      </c>
+      <c r="G27" t="n">
+        <v>17252200</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>44902</v>
+      </c>
+      <c r="B28" t="n">
+        <v>142</v>
+      </c>
+      <c r="C28" t="n">
+        <v>144</v>
+      </c>
+      <c r="D28" t="n">
+        <v>142</v>
+      </c>
+      <c r="E28" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="F28" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="G28" t="n">
+        <v>10374900</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>44903</v>
+      </c>
+      <c r="B29" t="n">
+        <v>142.5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>143</v>
+      </c>
+      <c r="D29" t="n">
+        <v>142</v>
+      </c>
+      <c r="E29" t="n">
+        <v>142</v>
+      </c>
+      <c r="F29" t="n">
+        <v>142</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3485800</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>44904</v>
+      </c>
+      <c r="B30" t="n">
+        <v>143</v>
+      </c>
+      <c r="C30" t="n">
+        <v>143</v>
+      </c>
+      <c r="D30" t="n">
+        <v>142</v>
+      </c>
+      <c r="E30" t="n">
+        <v>143</v>
+      </c>
+      <c r="F30" t="n">
+        <v>143</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3369700</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>44908</v>
+      </c>
+      <c r="B31" t="n">
+        <v>144</v>
+      </c>
+      <c r="C31" t="n">
+        <v>144</v>
+      </c>
+      <c r="D31" t="n">
+        <v>143</v>
+      </c>
+      <c r="E31" t="n">
+        <v>143</v>
+      </c>
+      <c r="F31" t="n">
+        <v>143</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1918627</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/set50_table.xlsx
+++ b/set50_table.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBANK.BK" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GULF.BK" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,22 +481,22 @@
         <v>44865</v>
       </c>
       <c r="B2" t="n">
-        <v>143.5</v>
+        <v>51</v>
       </c>
       <c r="C2" t="n">
-        <v>146.5</v>
+        <v>51.25</v>
       </c>
       <c r="D2" t="n">
-        <v>143</v>
+        <v>50.5</v>
       </c>
       <c r="E2" t="n">
-        <v>146</v>
+        <v>50.5</v>
       </c>
       <c r="F2" t="n">
-        <v>146</v>
+        <v>50.5</v>
       </c>
       <c r="G2" t="n">
-        <v>17752800</v>
+        <v>9799700</v>
       </c>
     </row>
     <row r="3">
@@ -504,22 +504,22 @@
         <v>44866</v>
       </c>
       <c r="B3" t="n">
-        <v>147.5</v>
+        <v>50.5</v>
       </c>
       <c r="C3" t="n">
-        <v>147.5</v>
+        <v>51.75</v>
       </c>
       <c r="D3" t="n">
-        <v>145.5</v>
+        <v>50.5</v>
       </c>
       <c r="E3" t="n">
-        <v>146.5</v>
+        <v>51.5</v>
       </c>
       <c r="F3" t="n">
-        <v>146.5</v>
+        <v>51.5</v>
       </c>
       <c r="G3" t="n">
-        <v>11550400</v>
+        <v>18182300</v>
       </c>
     </row>
     <row r="4">
@@ -527,22 +527,22 @@
         <v>44867</v>
       </c>
       <c r="B4" t="n">
-        <v>147</v>
+        <v>51.75</v>
       </c>
       <c r="C4" t="n">
-        <v>147.5</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
-        <v>145.5</v>
+        <v>51.25</v>
       </c>
       <c r="E4" t="n">
-        <v>147</v>
+        <v>51.75</v>
       </c>
       <c r="F4" t="n">
-        <v>147</v>
+        <v>51.75</v>
       </c>
       <c r="G4" t="n">
-        <v>9627600</v>
+        <v>15029900</v>
       </c>
     </row>
     <row r="5">
@@ -550,22 +550,22 @@
         <v>44868</v>
       </c>
       <c r="B5" t="n">
-        <v>147</v>
+        <v>51.5</v>
       </c>
       <c r="C5" t="n">
-        <v>149.5</v>
+        <v>51.5</v>
       </c>
       <c r="D5" t="n">
-        <v>146.5</v>
+        <v>51</v>
       </c>
       <c r="E5" t="n">
-        <v>149.5</v>
+        <v>51</v>
       </c>
       <c r="F5" t="n">
-        <v>149.5</v>
+        <v>51</v>
       </c>
       <c r="G5" t="n">
-        <v>14693000</v>
+        <v>8332100</v>
       </c>
     </row>
     <row r="6">
@@ -573,22 +573,22 @@
         <v>44869</v>
       </c>
       <c r="B6" t="n">
-        <v>149</v>
+        <v>51.25</v>
       </c>
       <c r="C6" t="n">
-        <v>149.5</v>
+        <v>51.5</v>
       </c>
       <c r="D6" t="n">
-        <v>148</v>
+        <v>50.75</v>
       </c>
       <c r="E6" t="n">
-        <v>148.5</v>
+        <v>50.75</v>
       </c>
       <c r="F6" t="n">
-        <v>148.5</v>
+        <v>50.75</v>
       </c>
       <c r="G6" t="n">
-        <v>12164700</v>
+        <v>11334500</v>
       </c>
     </row>
     <row r="7">
@@ -596,22 +596,22 @@
         <v>44872</v>
       </c>
       <c r="B7" t="n">
-        <v>149</v>
+        <v>50.75</v>
       </c>
       <c r="C7" t="n">
-        <v>149.5</v>
+        <v>51.25</v>
       </c>
       <c r="D7" t="n">
-        <v>148</v>
+        <v>50.5</v>
       </c>
       <c r="E7" t="n">
-        <v>148</v>
+        <v>50.5</v>
       </c>
       <c r="F7" t="n">
-        <v>148</v>
+        <v>50.5</v>
       </c>
       <c r="G7" t="n">
-        <v>5119300</v>
+        <v>10922400</v>
       </c>
     </row>
     <row r="8">
@@ -619,22 +619,22 @@
         <v>44873</v>
       </c>
       <c r="B8" t="n">
-        <v>149</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
-        <v>149.5</v>
+        <v>52.25</v>
       </c>
       <c r="D8" t="n">
-        <v>148</v>
+        <v>50.75</v>
       </c>
       <c r="E8" t="n">
-        <v>148.5</v>
+        <v>52</v>
       </c>
       <c r="F8" t="n">
-        <v>148.5</v>
+        <v>52</v>
       </c>
       <c r="G8" t="n">
-        <v>5572100</v>
+        <v>25375100</v>
       </c>
     </row>
     <row r="9">
@@ -642,22 +642,22 @@
         <v>44874</v>
       </c>
       <c r="B9" t="n">
-        <v>149.5</v>
+        <v>52</v>
       </c>
       <c r="C9" t="n">
-        <v>150</v>
+        <v>52.75</v>
       </c>
       <c r="D9" t="n">
-        <v>147.5</v>
+        <v>51.25</v>
       </c>
       <c r="E9" t="n">
-        <v>147.5</v>
+        <v>51.25</v>
       </c>
       <c r="F9" t="n">
-        <v>147.5</v>
+        <v>51.25</v>
       </c>
       <c r="G9" t="n">
-        <v>9537100</v>
+        <v>28223200</v>
       </c>
     </row>
     <row r="10">
@@ -665,22 +665,22 @@
         <v>44875</v>
       </c>
       <c r="B10" t="n">
-        <v>146.5</v>
+        <v>51</v>
       </c>
       <c r="C10" t="n">
-        <v>149</v>
+        <v>51.25</v>
       </c>
       <c r="D10" t="n">
-        <v>146</v>
+        <v>50.5</v>
       </c>
       <c r="E10" t="n">
-        <v>148</v>
+        <v>50.75</v>
       </c>
       <c r="F10" t="n">
-        <v>148</v>
+        <v>50.75</v>
       </c>
       <c r="G10" t="n">
-        <v>10168200</v>
+        <v>11634500</v>
       </c>
     </row>
     <row r="11">
@@ -688,22 +688,22 @@
         <v>44876</v>
       </c>
       <c r="B11" t="n">
-        <v>149</v>
+        <v>51.75</v>
       </c>
       <c r="C11" t="n">
-        <v>149.5</v>
+        <v>52.75</v>
       </c>
       <c r="D11" t="n">
-        <v>147.5</v>
+        <v>51.75</v>
       </c>
       <c r="E11" t="n">
-        <v>148</v>
+        <v>52.75</v>
       </c>
       <c r="F11" t="n">
-        <v>148</v>
+        <v>52.75</v>
       </c>
       <c r="G11" t="n">
-        <v>12981500</v>
+        <v>37054600</v>
       </c>
     </row>
     <row r="12">
@@ -711,22 +711,22 @@
         <v>44879</v>
       </c>
       <c r="B12" t="n">
-        <v>146</v>
+        <v>52.5</v>
       </c>
       <c r="C12" t="n">
-        <v>147</v>
+        <v>52.75</v>
       </c>
       <c r="D12" t="n">
-        <v>144</v>
+        <v>51.5</v>
       </c>
       <c r="E12" t="n">
-        <v>144.5</v>
+        <v>51.5</v>
       </c>
       <c r="F12" t="n">
-        <v>144.5</v>
+        <v>51.5</v>
       </c>
       <c r="G12" t="n">
-        <v>17568200</v>
+        <v>16698700</v>
       </c>
     </row>
     <row r="13">
@@ -734,22 +734,22 @@
         <v>44880</v>
       </c>
       <c r="B13" t="n">
-        <v>144.5</v>
+        <v>51.5</v>
       </c>
       <c r="C13" t="n">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="D13" t="n">
-        <v>144.5</v>
+        <v>51.25</v>
       </c>
       <c r="E13" t="n">
-        <v>144.5</v>
+        <v>52</v>
       </c>
       <c r="F13" t="n">
-        <v>144.5</v>
+        <v>52</v>
       </c>
       <c r="G13" t="n">
-        <v>13430800</v>
+        <v>15824900</v>
       </c>
     </row>
     <row r="14">
@@ -757,22 +757,22 @@
         <v>44881</v>
       </c>
       <c r="B14" t="n">
-        <v>144.5</v>
+        <v>51.75</v>
       </c>
       <c r="C14" t="n">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="D14" t="n">
-        <v>144</v>
+        <v>50</v>
       </c>
       <c r="E14" t="n">
-        <v>145</v>
+        <v>50.5</v>
       </c>
       <c r="F14" t="n">
-        <v>145</v>
+        <v>50.5</v>
       </c>
       <c r="G14" t="n">
-        <v>9768600</v>
+        <v>38041600</v>
       </c>
     </row>
     <row r="15">
@@ -780,22 +780,22 @@
         <v>44882</v>
       </c>
       <c r="B15" t="n">
-        <v>145</v>
+        <v>50.25</v>
       </c>
       <c r="C15" t="n">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="D15" t="n">
-        <v>143</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>143.5</v>
+        <v>50.75</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5</v>
+        <v>50.75</v>
       </c>
       <c r="G15" t="n">
-        <v>10765400</v>
+        <v>11803500</v>
       </c>
     </row>
     <row r="16">
@@ -803,22 +803,22 @@
         <v>44883</v>
       </c>
       <c r="B16" t="n">
-        <v>143.5</v>
+        <v>50.75</v>
       </c>
       <c r="C16" t="n">
-        <v>143.5</v>
+        <v>51.25</v>
       </c>
       <c r="D16" t="n">
-        <v>142</v>
+        <v>50.25</v>
       </c>
       <c r="E16" t="n">
-        <v>143</v>
+        <v>50.5</v>
       </c>
       <c r="F16" t="n">
-        <v>143</v>
+        <v>50.5</v>
       </c>
       <c r="G16" t="n">
-        <v>9257400</v>
+        <v>9023300</v>
       </c>
     </row>
     <row r="17">
@@ -826,22 +826,22 @@
         <v>44886</v>
       </c>
       <c r="B17" t="n">
-        <v>143</v>
+        <v>50.25</v>
       </c>
       <c r="C17" t="n">
-        <v>143.5</v>
+        <v>51</v>
       </c>
       <c r="D17" t="n">
-        <v>142</v>
+        <v>50.25</v>
       </c>
       <c r="E17" t="n">
-        <v>142.5</v>
+        <v>50.75</v>
       </c>
       <c r="F17" t="n">
-        <v>142.5</v>
+        <v>50.75</v>
       </c>
       <c r="G17" t="n">
-        <v>10003000</v>
+        <v>5554300</v>
       </c>
     </row>
     <row r="18">
@@ -849,22 +849,22 @@
         <v>44887</v>
       </c>
       <c r="B18" t="n">
-        <v>142.5</v>
+        <v>50.75</v>
       </c>
       <c r="C18" t="n">
-        <v>144</v>
+        <v>51.5</v>
       </c>
       <c r="D18" t="n">
-        <v>142.5</v>
+        <v>50.75</v>
       </c>
       <c r="E18" t="n">
-        <v>143.5</v>
+        <v>51</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5</v>
+        <v>51</v>
       </c>
       <c r="G18" t="n">
-        <v>5287300</v>
+        <v>12049100</v>
       </c>
     </row>
     <row r="19">
@@ -872,22 +872,22 @@
         <v>44888</v>
       </c>
       <c r="B19" t="n">
-        <v>143.5</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
-        <v>143.5</v>
+        <v>51.75</v>
       </c>
       <c r="D19" t="n">
-        <v>142.5</v>
+        <v>51</v>
       </c>
       <c r="E19" t="n">
-        <v>143</v>
+        <v>51.5</v>
       </c>
       <c r="F19" t="n">
-        <v>143</v>
+        <v>51.5</v>
       </c>
       <c r="G19" t="n">
-        <v>6272600</v>
+        <v>14403200</v>
       </c>
     </row>
     <row r="20">
@@ -895,22 +895,22 @@
         <v>44889</v>
       </c>
       <c r="B20" t="n">
-        <v>143.5</v>
+        <v>52.25</v>
       </c>
       <c r="C20" t="n">
-        <v>144</v>
+        <v>52.75</v>
       </c>
       <c r="D20" t="n">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="E20" t="n">
-        <v>143.5</v>
+        <v>52.5</v>
       </c>
       <c r="F20" t="n">
-        <v>143.5</v>
+        <v>52.5</v>
       </c>
       <c r="G20" t="n">
-        <v>2776000</v>
+        <v>15984200</v>
       </c>
     </row>
     <row r="21">
@@ -918,22 +918,22 @@
         <v>44890</v>
       </c>
       <c r="B21" t="n">
-        <v>143.5</v>
+        <v>52.5</v>
       </c>
       <c r="C21" t="n">
-        <v>144.5</v>
+        <v>52.5</v>
       </c>
       <c r="D21" t="n">
-        <v>143</v>
+        <v>51.75</v>
       </c>
       <c r="E21" t="n">
-        <v>143.5</v>
+        <v>52</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5</v>
+        <v>52</v>
       </c>
       <c r="G21" t="n">
-        <v>5736300</v>
+        <v>9800600</v>
       </c>
     </row>
     <row r="22">
@@ -941,22 +941,22 @@
         <v>44893</v>
       </c>
       <c r="B22" t="n">
-        <v>142.5</v>
+        <v>52</v>
       </c>
       <c r="C22" t="n">
-        <v>143.5</v>
+        <v>52.75</v>
       </c>
       <c r="D22" t="n">
-        <v>141.5</v>
+        <v>51.75</v>
       </c>
       <c r="E22" t="n">
-        <v>143.5</v>
+        <v>52</v>
       </c>
       <c r="F22" t="n">
-        <v>143.5</v>
+        <v>52</v>
       </c>
       <c r="G22" t="n">
-        <v>7093400</v>
+        <v>10735100</v>
       </c>
     </row>
     <row r="23">
@@ -964,22 +964,22 @@
         <v>44894</v>
       </c>
       <c r="B23" t="n">
-        <v>143.5</v>
+        <v>52</v>
       </c>
       <c r="C23" t="n">
-        <v>146</v>
+        <v>52.25</v>
       </c>
       <c r="D23" t="n">
-        <v>143</v>
+        <v>51.5</v>
       </c>
       <c r="E23" t="n">
-        <v>145.5</v>
+        <v>52</v>
       </c>
       <c r="F23" t="n">
-        <v>145.5</v>
+        <v>52</v>
       </c>
       <c r="G23" t="n">
-        <v>11822300</v>
+        <v>13501100</v>
       </c>
     </row>
     <row r="24">
@@ -987,22 +987,22 @@
         <v>44895</v>
       </c>
       <c r="B24" t="n">
-        <v>145</v>
+        <v>52</v>
       </c>
       <c r="C24" t="n">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="D24" t="n">
-        <v>144</v>
+        <v>51.75</v>
       </c>
       <c r="E24" t="n">
-        <v>144.5</v>
+        <v>53</v>
       </c>
       <c r="F24" t="n">
-        <v>144.5</v>
+        <v>53</v>
       </c>
       <c r="G24" t="n">
-        <v>15367800</v>
+        <v>21709600</v>
       </c>
     </row>
     <row r="25">
@@ -1010,22 +1010,22 @@
         <v>44896</v>
       </c>
       <c r="B25" t="n">
-        <v>144.5</v>
+        <v>53.5</v>
       </c>
       <c r="C25" t="n">
-        <v>145</v>
+        <v>53.75</v>
       </c>
       <c r="D25" t="n">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="E25" t="n">
-        <v>144</v>
+        <v>53.25</v>
       </c>
       <c r="F25" t="n">
-        <v>144</v>
+        <v>53.25</v>
       </c>
       <c r="G25" t="n">
-        <v>10183900</v>
+        <v>12895200</v>
       </c>
     </row>
     <row r="26">
@@ -1033,22 +1033,22 @@
         <v>44897</v>
       </c>
       <c r="B26" t="n">
-        <v>143.5</v>
+        <v>53.25</v>
       </c>
       <c r="C26" t="n">
-        <v>144</v>
+        <v>53.5</v>
       </c>
       <c r="D26" t="n">
-        <v>142.5</v>
+        <v>53</v>
       </c>
       <c r="E26" t="n">
-        <v>142.5</v>
+        <v>53.25</v>
       </c>
       <c r="F26" t="n">
-        <v>142.5</v>
+        <v>53.25</v>
       </c>
       <c r="G26" t="n">
-        <v>9242700</v>
+        <v>11390900</v>
       </c>
     </row>
     <row r="27">
@@ -1056,22 +1056,22 @@
         <v>44901</v>
       </c>
       <c r="B27" t="n">
-        <v>141.5</v>
+        <v>53</v>
       </c>
       <c r="C27" t="n">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="D27" t="n">
-        <v>141</v>
+        <v>52.75</v>
       </c>
       <c r="E27" t="n">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="F27" t="n">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="G27" t="n">
-        <v>17252200</v>
+        <v>21178600</v>
       </c>
     </row>
     <row r="28">
@@ -1079,22 +1079,22 @@
         <v>44902</v>
       </c>
       <c r="B28" t="n">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="C28" t="n">
-        <v>144</v>
+        <v>54.5</v>
       </c>
       <c r="D28" t="n">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="E28" t="n">
-        <v>142.5</v>
+        <v>53.25</v>
       </c>
       <c r="F28" t="n">
-        <v>142.5</v>
+        <v>53.25</v>
       </c>
       <c r="G28" t="n">
-        <v>10374900</v>
+        <v>19716300</v>
       </c>
     </row>
     <row r="29">
@@ -1102,22 +1102,22 @@
         <v>44903</v>
       </c>
       <c r="B29" t="n">
-        <v>142.5</v>
+        <v>53.5</v>
       </c>
       <c r="C29" t="n">
-        <v>143</v>
+        <v>53.5</v>
       </c>
       <c r="D29" t="n">
-        <v>142</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
-        <v>142</v>
+        <v>53.5</v>
       </c>
       <c r="F29" t="n">
-        <v>142</v>
+        <v>53.5</v>
       </c>
       <c r="G29" t="n">
-        <v>3485800</v>
+        <v>8922800</v>
       </c>
     </row>
     <row r="30">
@@ -1125,22 +1125,22 @@
         <v>44904</v>
       </c>
       <c r="B30" t="n">
-        <v>143</v>
+        <v>53.5</v>
       </c>
       <c r="C30" t="n">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="D30" t="n">
-        <v>142</v>
+        <v>53.5</v>
       </c>
       <c r="E30" t="n">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="F30" t="n">
-        <v>143</v>
+        <v>54</v>
       </c>
       <c r="G30" t="n">
-        <v>3369700</v>
+        <v>7920600</v>
       </c>
     </row>
     <row r="31">
@@ -1148,22 +1148,22 @@
         <v>44908</v>
       </c>
       <c r="B31" t="n">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="C31" t="n">
-        <v>144</v>
+        <v>54.25</v>
       </c>
       <c r="D31" t="n">
-        <v>143</v>
+        <v>53.25</v>
       </c>
       <c r="E31" t="n">
-        <v>143</v>
+        <v>53.5</v>
       </c>
       <c r="F31" t="n">
-        <v>143</v>
+        <v>53.5</v>
       </c>
       <c r="G31" t="n">
-        <v>1918627</v>
+        <v>9404988</v>
       </c>
     </row>
   </sheetData>
